--- a/experiments/pg/return_discount_increment/no_max_prefix_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/no_max_prefix_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3180"/>
+  <dimension ref="A1:C3190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41772,6 +41772,136 @@
         <v>14.68208762611176</v>
       </c>
     </row>
+    <row r="3181">
+      <c r="A3181" s="1" t="n">
+        <v>3179</v>
+      </c>
+      <c r="B3181" t="inlineStr">
+        <is>
+          <t>[-3, 3, 7]</t>
+        </is>
+      </c>
+      <c r="C3181" t="n">
+        <v>14.10063640791147</v>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" s="1" t="n">
+        <v>3180</v>
+      </c>
+      <c r="B3182" t="inlineStr">
+        <is>
+          <t>[-2, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C3182" t="n">
+        <v>14.47207766739824</v>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" s="1" t="n">
+        <v>3181</v>
+      </c>
+      <c r="B3183" t="inlineStr">
+        <is>
+          <t>[-2, 7, -7]</t>
+        </is>
+      </c>
+      <c r="C3183" t="n">
+        <v>14.47160045141145</v>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" s="1" t="n">
+        <v>3182</v>
+      </c>
+      <c r="B3184" t="inlineStr">
+        <is>
+          <t>[-1, 7, -7]</t>
+        </is>
+      </c>
+      <c r="C3184" t="n">
+        <v>14.98849843540931</v>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" s="1" t="n">
+        <v>3183</v>
+      </c>
+      <c r="B3185" t="inlineStr">
+        <is>
+          <t>[-4, -7, 6]</t>
+        </is>
+      </c>
+      <c r="C3185" t="n">
+        <v>13.93512632254434</v>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" s="1" t="n">
+        <v>3184</v>
+      </c>
+      <c r="B3186" t="inlineStr">
+        <is>
+          <t>[1, -7, 7]</t>
+        </is>
+      </c>
+      <c r="C3186" t="n">
+        <v>15.16443728772172</v>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" s="1" t="n">
+        <v>3185</v>
+      </c>
+      <c r="B3187" t="inlineStr">
+        <is>
+          <t>[2, -7, 7]</t>
+        </is>
+      </c>
+      <c r="C3187" t="n">
+        <v>14.68208762612663</v>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" s="1" t="n">
+        <v>3186</v>
+      </c>
+      <c r="B3188" t="inlineStr">
+        <is>
+          <t>[-2, -3, 7]</t>
+        </is>
+      </c>
+      <c r="C3188" t="n">
+        <v>14.53862497622649</v>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" s="1" t="n">
+        <v>3187</v>
+      </c>
+      <c r="B3189" t="inlineStr">
+        <is>
+          <t>[0, 7, -5]</t>
+        </is>
+      </c>
+      <c r="C3189" t="n">
+        <v>15.31131256106489</v>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" s="1" t="n">
+        <v>3188</v>
+      </c>
+      <c r="B3190" t="inlineStr">
+        <is>
+          <t>[0, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C3190" t="n">
+        <v>15.32150224225631</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiments/pg/return_discount_increment/no_max_prefix_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/no_max_prefix_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3190"/>
+  <dimension ref="A1:C3191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41902,6 +41902,19 @@
         <v>15.32150224225631</v>
       </c>
     </row>
+    <row r="3191">
+      <c r="A3191" s="1" t="n">
+        <v>3189</v>
+      </c>
+      <c r="B3191" t="inlineStr">
+        <is>
+          <t>[0, 7, -7]</t>
+        </is>
+      </c>
+      <c r="C3191" t="n">
+        <v>15.30567959748378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
